--- a/RET - GWP Output.xlsx
+++ b/RET - GWP Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8fd00ab2e5ff45a/Desktop/RET Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mavsuta-my.sharepoint.com/personal/raziye_aghapour_uta_edu/Documents/Desktop/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{11EDA2AD-7879-4F24-97BF-A8C621321B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F00EF7B-84C6-4A3C-A982-C4A4BC55282A}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{11EDA2AD-7879-4F24-97BF-A8C621321B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFA8BD55-78E1-4E1F-BE15-7900F825483B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{020BE837-2BA1-4D74-8BD2-FFC937945239}"/>
+    <workbookView xWindow="29925" yWindow="1155" windowWidth="21600" windowHeight="11385" xr2:uid="{020BE837-2BA1-4D74-8BD2-FFC937945239}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="46">
-  <si>
-    <t>GWP</t>
-  </si>
   <si>
     <t>Light</t>
   </si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>ReinforcedVinylFixedMtlSpacer</t>
+  </si>
+  <si>
+    <t>gwp</t>
   </si>
 </sst>
 </file>
@@ -328,10 +328,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,98 +629,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{272D5B5E-2B1D-4994-B18E-D6FA034925E6}">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="11" style="12" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="12" customWidth="1"/>
     <col min="5" max="5" width="10" style="12" customWidth="1"/>
-    <col min="6" max="7" width="9.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="12" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="25.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="25.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="T1" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -733,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
         <v>10.5</v>
@@ -751,7 +747,7 @@
         <v>19</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="15">
         <v>0.125</v>
@@ -760,33 +756,33 @@
         <v>0.25</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T2" s="7">
         <v>225000</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -795,7 +791,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <v>10.5</v>
@@ -813,7 +809,7 @@
         <v>19</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="15">
         <v>0.25</v>
@@ -822,60 +818,60 @@
         <v>0.5</v>
       </c>
       <c r="M3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T3" s="7">
         <v>238000</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4">
-        <v>21</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
-      </c>
-      <c r="G4" s="4">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4">
-        <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="K4" s="15">
         <v>0.25</v>
@@ -884,33 +880,33 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T4" s="7">
         <v>165000</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="5">
         <v>4</v>
@@ -919,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <v>10.5</v>
@@ -937,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K5" s="15">
         <v>0.25</v>
@@ -946,33 +942,33 @@
         <v>0.5</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5" s="7">
         <v>190000</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5">
         <v>4</v>
@@ -981,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
         <v>10.5</v>
@@ -999,7 +995,7 @@
         <v>19</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6" s="15">
         <v>0.125</v>
@@ -1008,60 +1004,60 @@
         <v>0.25</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T6" s="7">
         <v>179000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>19</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>21</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>19</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>19</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4">
-        <v>21</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="K7" s="15">
         <v>0.25</v>
@@ -1070,33 +1066,33 @@
         <v>0.5</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T7" s="7">
         <v>213000</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -1105,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>19</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>21</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>19</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
-        <v>21</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="K8" s="15">
         <v>0.25</v>
@@ -1132,33 +1128,33 @@
         <v>0.5</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q8" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="R8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T8" s="7">
         <v>235000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="5">
         <v>4</v>
@@ -1167,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4">
         <v>10.5</v>
@@ -1185,7 +1181,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9" s="15">
         <v>0.125</v>
@@ -1194,33 +1190,33 @@
         <v>0.25</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T9" s="7">
         <v>176000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="9">
         <v>4</v>
@@ -1229,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="8">
         <v>21</v>
@@ -1247,7 +1243,7 @@
         <v>19</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" s="15">
         <v>0.25</v>
@@ -1256,60 +1252,60 @@
         <v>0.5</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="R10" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T10" s="7">
         <v>195000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
+        <v>19</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>21</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>13</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>21</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="B11" s="9">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>21</v>
-      </c>
-      <c r="F11" s="8">
-        <v>4</v>
-      </c>
-      <c r="G11" s="8">
-        <v>13</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>21</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>2</v>
       </c>
       <c r="K11" s="15">
         <v>0.125</v>
@@ -1318,60 +1314,60 @@
         <v>0.25</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="R11" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T11" s="7">
         <v>192000</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8">
+        <v>21</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>19</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>19</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8">
-        <v>21</v>
-      </c>
-      <c r="F12" s="8">
-        <v>4</v>
-      </c>
-      <c r="G12" s="8">
-        <v>19</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>19</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="K12" s="15">
         <v>0.125</v>
@@ -1380,33 +1376,33 @@
         <v>0.25</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T12" s="7">
         <v>215000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="5">
         <v>0</v>
@@ -1415,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4">
         <v>10.5</v>
@@ -1433,7 +1429,7 @@
         <v>21</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K13" s="15">
         <v>0.125</v>
@@ -1442,60 +1438,60 @@
         <v>0.25</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T13" s="7">
         <v>242000</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <v>19</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>19</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>21</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B14" s="5">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4">
-        <v>19</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
-        <v>19</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>21</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="15">
         <v>0.125</v>
@@ -1504,33 +1500,33 @@
         <v>0.25</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T14" s="7">
         <v>212000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" s="5">
         <v>0</v>
@@ -1539,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="4">
         <v>10.5</v>
@@ -1557,7 +1553,7 @@
         <v>21</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="15">
         <v>0.125</v>
@@ -1566,33 +1562,33 @@
         <v>0.25</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T15" s="7">
         <v>198000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="5">
         <v>0</v>
@@ -1601,25 +1597,25 @@
         <v>19</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>19</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E16" s="4">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>13</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4">
-        <v>19</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="K16" s="15">
         <v>0.125</v>
@@ -1628,60 +1624,60 @@
         <v>0.25</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T16" s="7">
         <v>194000</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>13</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>21</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>21</v>
-      </c>
-      <c r="F17" s="4">
-        <v>4</v>
-      </c>
-      <c r="G17" s="4">
-        <v>13</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4">
-        <v>21</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="K17" s="15">
         <v>0.25</v>
@@ -1690,33 +1686,33 @@
         <v>0.5</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T17" s="7">
         <v>171000</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="5">
         <v>4</v>
@@ -1725,25 +1721,25 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>21</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>19</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>19</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E18" s="4">
-        <v>21</v>
-      </c>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-      <c r="G18" s="4">
-        <v>19</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>19</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="K18" s="15">
         <v>0.25</v>
@@ -1752,33 +1748,33 @@
         <v>0.5</v>
       </c>
       <c r="M18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q18" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="R18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T18" s="7">
         <v>229000</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="5">
         <v>4</v>
@@ -1787,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="4">
         <v>10.5</v>
@@ -1805,7 +1801,7 @@
         <v>21</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="15">
         <v>0.125</v>
@@ -1814,60 +1810,60 @@
         <v>0.25</v>
       </c>
       <c r="M19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P19" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T19" s="7">
         <v>248000</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>19</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>19</v>
+      </c>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>19</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B20" s="5">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4">
-        <v>19</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>21</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4">
-        <v>19</v>
-      </c>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
-        <v>19</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="K20" s="15">
         <v>0.125</v>
@@ -1876,33 +1872,33 @@
         <v>0.25</v>
       </c>
       <c r="M20" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T20" s="7">
         <v>237000</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="5">
         <v>4</v>
@@ -1911,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
         <v>10.5</v>
@@ -1929,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K21" s="15">
         <v>0.25</v>
@@ -1938,33 +1934,33 @@
         <v>0.5</v>
       </c>
       <c r="M21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T21" s="7">
         <v>224000</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="5">
         <v>0</v>
@@ -1973,7 +1969,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="4">
         <v>10.5</v>
@@ -1991,7 +1987,7 @@
         <v>19</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="15">
         <v>0.25</v>
@@ -2000,33 +1996,33 @@
         <v>0.5</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S22" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T22" s="7">
         <v>174000</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="5">
         <v>0</v>
@@ -2035,7 +2031,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="4">
         <v>10.5</v>
@@ -2053,7 +2049,7 @@
         <v>21</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K23" s="15">
         <v>0.25</v>
@@ -2062,60 +2058,60 @@
         <v>0.5</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T23" s="7">
         <v>190000</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>21</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>19</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>21</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>13</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>19</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="K24" s="15">
         <v>0.125</v>
@@ -2124,33 +2120,33 @@
         <v>0.25</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S24" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T24" s="7">
         <v>171000</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="5">
         <v>4</v>
@@ -2159,7 +2155,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="4">
         <v>10.5</v>
@@ -2177,7 +2173,7 @@
         <v>19</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="15">
         <v>0.25</v>
@@ -2186,33 +2182,33 @@
         <v>0.5</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T25" s="7">
         <v>216000</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
@@ -2221,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <v>21</v>
@@ -2239,7 +2235,7 @@
         <v>21</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K26" s="15">
         <v>0.125</v>
@@ -2248,60 +2244,60 @@
         <v>0.25</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T26" s="7">
         <v>245000</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4">
+        <v>21</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <v>13</v>
+      </c>
+      <c r="H27" s="4">
+        <v>21</v>
+      </c>
+      <c r="I27" s="4">
+        <v>19</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B27" s="5">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4">
-        <v>21</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4">
-        <v>13</v>
-      </c>
-      <c r="H27" s="4">
-        <v>21</v>
-      </c>
-      <c r="I27" s="4">
-        <v>19</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="K27" s="15">
         <v>0.125</v>
@@ -2310,33 +2306,33 @@
         <v>0.25</v>
       </c>
       <c r="M27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T27" s="7">
         <v>251000</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="5">
         <v>4</v>
@@ -2345,7 +2341,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="4">
         <v>10.5</v>
@@ -2363,7 +2359,7 @@
         <v>21</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="15">
         <v>0.25</v>
@@ -2372,60 +2368,60 @@
         <v>0.5</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T28" s="7">
         <v>293000</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>21</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4">
+        <v>13</v>
+      </c>
+      <c r="H29" s="4">
+        <v>21</v>
+      </c>
+      <c r="I29" s="4">
+        <v>21</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B29" s="5">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>21</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4</v>
-      </c>
-      <c r="G29" s="4">
-        <v>13</v>
-      </c>
-      <c r="H29" s="4">
-        <v>21</v>
-      </c>
-      <c r="I29" s="4">
-        <v>21</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="K29" s="15">
         <v>0.125</v>
@@ -2434,33 +2430,33 @@
         <v>0.25</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q29" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T29" s="7">
         <v>274000</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="5">
         <v>0</v>
@@ -2469,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30" s="4">
         <v>10.5</v>
@@ -2487,7 +2483,7 @@
         <v>21</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K30" s="15">
         <v>0.25</v>
@@ -2496,33 +2492,33 @@
         <v>0.5</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q30" s="4" t="s">
+      <c r="R30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R30" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S30" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T30" s="7">
         <v>202000</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -2531,7 +2527,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E31" s="4">
         <v>21</v>
@@ -2549,7 +2545,7 @@
         <v>19</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="15">
         <v>0.125</v>
@@ -2558,33 +2554,33 @@
         <v>0.25</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T31" s="7">
         <v>241000</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32" s="5">
         <v>0</v>
@@ -2593,7 +2589,7 @@
         <v>19</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="4">
         <v>10.5</v>
@@ -2611,7 +2607,7 @@
         <v>21</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" s="15">
         <v>0.125</v>
@@ -2620,33 +2616,33 @@
         <v>0.25</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q32" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R32" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T32" s="7">
         <v>161000</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
@@ -2655,7 +2651,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="4">
         <v>21</v>
@@ -2673,7 +2669,7 @@
         <v>19</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K33" s="15">
         <v>0.25</v>
@@ -2682,33 +2678,33 @@
         <v>0.5</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R33" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S33" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T33" s="7">
         <v>180000</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" s="5">
         <v>4</v>
@@ -2717,7 +2713,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="4">
         <v>10.5</v>
@@ -2735,7 +2731,7 @@
         <v>19</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K34" s="15">
         <v>0.125</v>
@@ -2744,33 +2740,33 @@
         <v>0.25</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q34" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="R34" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T34" s="7">
         <v>299000</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="5">
         <v>4</v>
@@ -2779,7 +2775,7 @@
         <v>19</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
         <v>21</v>
@@ -2797,7 +2793,7 @@
         <v>19</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K35" s="15">
         <v>0.25</v>
@@ -2806,33 +2802,33 @@
         <v>0.5</v>
       </c>
       <c r="M35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P35" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T35" s="7">
         <v>162000</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="5">
         <v>4</v>
@@ -2841,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
         <v>10.5</v>
@@ -2859,7 +2855,7 @@
         <v>21</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="15">
         <v>0.25</v>
@@ -2868,33 +2864,33 @@
         <v>0.5</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S36" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T36" s="7">
         <v>208000</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
@@ -2903,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37" s="4">
         <v>10.5</v>
@@ -2921,7 +2917,7 @@
         <v>19</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" s="15">
         <v>0.25</v>
@@ -2930,33 +2926,33 @@
         <v>0.5</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T37" s="7">
         <v>208000</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="5">
         <v>4</v>
@@ -2965,7 +2961,7 @@
         <v>19</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="4">
         <v>10.5</v>
@@ -2983,7 +2979,7 @@
         <v>21</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="15">
         <v>0.25</v>
@@ -2992,33 +2988,33 @@
         <v>0.5</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T38" s="7">
         <v>205000</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="5">
         <v>4</v>
@@ -3027,25 +3023,25 @@
         <v>0</v>
       </c>
       <c r="D39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>21</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4</v>
+      </c>
+      <c r="G39" s="4">
+        <v>19</v>
+      </c>
+      <c r="H39" s="4">
+        <v>21</v>
+      </c>
+      <c r="I39" s="4">
+        <v>19</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>21</v>
-      </c>
-      <c r="F39" s="4">
-        <v>4</v>
-      </c>
-      <c r="G39" s="4">
-        <v>19</v>
-      </c>
-      <c r="H39" s="4">
-        <v>21</v>
-      </c>
-      <c r="I39" s="4">
-        <v>19</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="K39" s="15">
         <v>0.25</v>
@@ -3054,33 +3050,33 @@
         <v>0.5</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T39" s="7">
         <v>207000</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40" s="5">
         <v>0</v>
@@ -3089,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40" s="4">
         <v>10.5</v>
@@ -3107,7 +3103,7 @@
         <v>19</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K40" s="15">
         <v>0.25</v>
@@ -3116,33 +3112,33 @@
         <v>0.5</v>
       </c>
       <c r="M40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q40" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R40" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T40" s="7">
         <v>207000</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
@@ -3151,25 +3147,25 @@
         <v>19</v>
       </c>
       <c r="D41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>21</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4">
+        <v>13</v>
+      </c>
+      <c r="H41" s="4">
+        <v>21</v>
+      </c>
+      <c r="I41" s="4">
+        <v>19</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>21</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-      <c r="G41" s="4">
-        <v>13</v>
-      </c>
-      <c r="H41" s="4">
-        <v>21</v>
-      </c>
-      <c r="I41" s="4">
-        <v>19</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="K41" s="15">
         <v>0.25</v>
@@ -3178,33 +3174,33 @@
         <v>0.5</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="R41" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T41" s="7">
         <v>259000</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="5">
         <v>0</v>
@@ -3213,7 +3209,7 @@
         <v>19</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="4">
         <v>10.5</v>
@@ -3231,7 +3227,7 @@
         <v>21</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K42" s="15">
         <v>0.125</v>
@@ -3240,33 +3236,33 @@
         <v>0.25</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="4" t="s">
+      <c r="R42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R42" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S42" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T42" s="7">
         <v>207000</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="5">
         <v>4</v>
@@ -3275,7 +3271,7 @@
         <v>19</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="4">
         <v>10.5</v>
@@ -3293,7 +3289,7 @@
         <v>19</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K43" s="15">
         <v>0.125</v>
@@ -3302,33 +3298,33 @@
         <v>0.25</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q43" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R43" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T43" s="7">
         <v>159000</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="5">
         <v>4</v>
@@ -3337,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="4">
         <v>10.5</v>
@@ -3355,7 +3351,7 @@
         <v>19</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K44" s="15">
         <v>0.125</v>
@@ -3364,33 +3360,33 @@
         <v>0.25</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q44" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="R44" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T44" s="7">
         <v>207000</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="5">
         <v>0</v>
@@ -3399,7 +3395,7 @@
         <v>19</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="4">
         <v>21</v>
@@ -3417,7 +3413,7 @@
         <v>21</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" s="15">
         <v>0.125</v>
@@ -3426,33 +3422,33 @@
         <v>0.25</v>
       </c>
       <c r="M45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R45" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T45" s="7">
         <v>207000</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="5">
         <v>0</v>
@@ -3461,25 +3457,25 @@
         <v>0</v>
       </c>
       <c r="D46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4">
+        <v>21</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4</v>
+      </c>
+      <c r="G46" s="4">
+        <v>13</v>
+      </c>
+      <c r="H46" s="4">
+        <v>21</v>
+      </c>
+      <c r="I46" s="4">
+        <v>21</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E46" s="4">
-        <v>21</v>
-      </c>
-      <c r="F46" s="4">
-        <v>4</v>
-      </c>
-      <c r="G46" s="4">
-        <v>13</v>
-      </c>
-      <c r="H46" s="4">
-        <v>21</v>
-      </c>
-      <c r="I46" s="4">
-        <v>21</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="K46" s="15">
         <v>0.25</v>
@@ -3488,33 +3484,33 @@
         <v>0.5</v>
       </c>
       <c r="M46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R46" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T46" s="7">
         <v>241000</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" s="5">
         <v>0</v>
@@ -3523,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="4">
         <v>10.5</v>
@@ -3541,7 +3537,7 @@
         <v>19</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" s="15">
         <v>0.125</v>
@@ -3550,60 +3546,60 @@
         <v>0.25</v>
       </c>
       <c r="M47" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q47" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R47" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T47" s="7">
         <v>262000</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="5">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4">
+        <v>19</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="4">
+        <v>21</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
+        <v>19</v>
+      </c>
+      <c r="H48" s="4">
+        <v>21</v>
+      </c>
+      <c r="I48" s="4">
+        <v>21</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B48" s="5">
-        <v>4</v>
-      </c>
-      <c r="C48" s="4">
-        <v>19</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="4">
-        <v>21</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>19</v>
-      </c>
-      <c r="H48" s="4">
-        <v>21</v>
-      </c>
-      <c r="I48" s="4">
-        <v>21</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="K48" s="15">
         <v>0.25</v>
@@ -3612,60 +3608,60 @@
         <v>0.5</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q48" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="R48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T48" s="7">
         <v>200000</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4">
+        <v>21</v>
+      </c>
+      <c r="F49" s="4">
+        <v>0</v>
+      </c>
+      <c r="G49" s="4">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4">
+        <v>21</v>
+      </c>
+      <c r="I49" s="4">
+        <v>21</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B49" s="5">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="4">
-        <v>21</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0</v>
-      </c>
-      <c r="G49" s="4">
-        <v>19</v>
-      </c>
-      <c r="H49" s="4">
-        <v>21</v>
-      </c>
-      <c r="I49" s="4">
-        <v>21</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="K49" s="15">
         <v>0.125</v>
@@ -3674,33 +3670,33 @@
         <v>0.25</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="4" t="s">
+      <c r="R49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R49" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="S49" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T49" s="7">
         <v>162000</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50" s="5">
         <v>36</v>
@@ -3709,7 +3705,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -3727,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K50" s="16">
         <v>0.125</v>
@@ -3736,33 +3732,33 @@
         <v>0</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T50" s="11">
         <v>187000</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="5">
         <v>35</v>
@@ -3771,7 +3767,7 @@
         <v>38</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51" s="4">
         <v>1.3</v>
@@ -3789,7 +3785,7 @@
         <v>19</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K51" s="16">
         <v>0.125</v>
@@ -3798,33 +3794,33 @@
         <v>0</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T51" s="11">
         <v>174000</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" s="5">
         <v>24</v>
@@ -3833,7 +3829,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" s="4">
         <v>7</v>
@@ -3851,7 +3847,7 @@
         <v>11</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K52" s="16">
         <v>0.125</v>
@@ -3860,33 +3856,33 @@
         <v>0</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T52" s="11">
         <v>169000</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" s="5">
         <v>20</v>
@@ -3895,7 +3891,7 @@
         <v>38</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E53" s="4">
         <v>14</v>
@@ -3913,7 +3909,7 @@
         <v>21</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K53" s="16">
         <v>0.125</v>
@@ -3922,33 +3918,33 @@
         <v>0</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N53" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T53" s="11">
         <v>166000</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="5">
         <v>36</v>
@@ -3957,7 +3953,7 @@
         <v>19</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -3975,42 +3971,42 @@
         <v>13</v>
       </c>
       <c r="J54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="L54" s="16">
+        <v>0</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="L54" s="16">
-        <v>0</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="R54" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T54" s="11">
         <v>192000</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" s="5">
         <v>4</v>
@@ -4019,7 +4015,7 @@
         <v>49</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55" s="4">
         <v>4</v>
@@ -4037,42 +4033,42 @@
         <v>13</v>
       </c>
       <c r="J55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="L55" s="16">
+        <v>0</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="L55" s="16">
-        <v>0</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="R55" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T55" s="11">
         <v>182000</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="5">
         <v>36</v>
@@ -4081,7 +4077,7 @@
         <v>38</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E56" s="4">
         <v>12</v>
@@ -4099,42 +4095,42 @@
         <v>0</v>
       </c>
       <c r="J56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="L56" s="16">
+        <v>0</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="L56" s="16">
-        <v>0</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="R56" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T56" s="11">
         <v>173000</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57" s="5">
         <v>0</v>
@@ -4143,7 +4139,7 @@
         <v>3</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E57" s="4">
         <v>14</v>
@@ -4161,42 +4157,42 @@
         <v>13</v>
       </c>
       <c r="J57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="L57" s="16">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K57" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="L57" s="16">
-        <v>0</v>
-      </c>
-      <c r="M57" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="R57" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T57" s="11">
         <v>167000</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" s="5">
         <v>35</v>
@@ -4205,7 +4201,7 @@
         <v>49</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58" s="4">
         <v>14</v>
@@ -4223,7 +4219,7 @@
         <v>21</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" s="16">
         <v>0.125</v>
@@ -4232,33 +4228,33 @@
         <v>0.25</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R58" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S58" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T58" s="11">
         <v>167000</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" s="5">
         <v>12</v>
@@ -4267,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E59" s="4">
         <v>0</v>
@@ -4285,7 +4281,7 @@
         <v>19</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K59" s="16">
         <v>0.125</v>
@@ -4294,33 +4290,33 @@
         <v>0.25</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R59" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S59" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T59" s="11">
         <v>173000</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60" s="5">
         <v>9</v>
@@ -4329,7 +4325,7 @@
         <v>30</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60" s="4">
         <v>21</v>
@@ -4347,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" s="16">
         <v>0.125</v>
@@ -4356,33 +4352,33 @@
         <v>0.5</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S60" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T60" s="11">
         <v>175000</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="5">
         <v>30</v>
@@ -4391,7 +4387,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E61" s="4">
         <v>18</v>
@@ -4409,7 +4405,7 @@
         <v>30</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K61" s="16">
         <v>0.125</v>
@@ -4418,33 +4414,33 @@
         <v>0.5</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N61" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O61" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R61" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S61" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T61" s="11">
         <v>167000</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="5">
         <v>24</v>
@@ -4453,7 +4449,7 @@
         <v>60</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E62" s="4">
         <v>14</v>
@@ -4471,7 +4467,7 @@
         <v>13</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" s="16">
         <v>0.25</v>
@@ -4480,33 +4476,33 @@
         <v>0.25</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O62" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R62" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S62" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T62" s="11">
         <v>164000</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63" s="5">
         <v>28</v>
@@ -4515,7 +4511,7 @@
         <v>38</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E63" s="4">
         <v>21</v>
@@ -4533,42 +4529,42 @@
         <v>30</v>
       </c>
       <c r="J63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K63" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="L63" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="M63" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K63" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="L63" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="M63" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="N63" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R63" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S63" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T63" s="11">
         <v>163000</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="5">
         <v>4</v>
@@ -4577,7 +4573,7 @@
         <v>30</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E64" s="4">
         <v>6</v>
@@ -4595,7 +4591,7 @@
         <v>30</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" s="16">
         <v>0.25</v>
@@ -4604,33 +4600,33 @@
         <v>0.5</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O64" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R64" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S64" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T64" s="11">
         <v>166000</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="5">
         <v>12</v>
@@ -4639,7 +4635,7 @@
         <v>11</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65" s="4">
         <v>12</v>
@@ -4657,7 +4653,7 @@
         <v>21</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" s="16">
         <v>0.25</v>
@@ -4666,33 +4662,33 @@
         <v>0.5</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O65" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q65" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S65" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T65" s="11">
         <v>170000</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66" s="5">
         <v>42</v>
@@ -4701,7 +4697,7 @@
         <v>21</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E66" s="4">
         <v>10.5</v>
@@ -4719,7 +4715,7 @@
         <v>11</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K66" s="16">
         <v>0.125</v>
@@ -4728,33 +4724,33 @@
         <v>0.25</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O66" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q66" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R66" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S66" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T66" s="11">
         <v>170000</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67" s="5">
         <v>18</v>
@@ -4763,7 +4759,7 @@
         <v>49</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67" s="4">
         <v>18</v>
@@ -4781,7 +4777,7 @@
         <v>30</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K67" s="16">
         <v>0.125</v>
@@ -4790,33 +4786,33 @@
         <v>0.25</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N67" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O67" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R67" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S67" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T67" s="11">
         <v>161000</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68" s="5">
         <v>36</v>
@@ -4825,7 +4821,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E68" s="4">
         <v>18</v>
@@ -4843,7 +4839,7 @@
         <v>13</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K68" s="16">
         <v>0.125</v>
@@ -4852,33 +4848,33 @@
         <v>0.5</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O68" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q68" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R68" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S68" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T68" s="11">
         <v>161000</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B69" s="5">
         <v>18</v>
@@ -4887,7 +4883,7 @@
         <v>49</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69" s="4">
         <v>2</v>
@@ -4905,7 +4901,7 @@
         <v>21</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K69" s="16">
         <v>0.125</v>
@@ -4914,33 +4910,33 @@
         <v>0.5</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N69" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O69" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q69" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R69" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S69" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T69" s="11">
         <v>171000</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B70" s="5">
         <v>14</v>
@@ -4949,7 +4945,7 @@
         <v>38</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70" s="4">
         <v>9</v>
@@ -4967,7 +4963,7 @@
         <v>19</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K70" s="16">
         <v>0.25</v>
@@ -4976,33 +4972,33 @@
         <v>0.25</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q70" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R70" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S70" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T70" s="11">
         <v>170000</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71" s="5">
         <v>18</v>
@@ -5011,7 +5007,7 @@
         <v>60</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E71" s="4">
         <v>4</v>
@@ -5029,7 +5025,7 @@
         <v>30</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K71" s="16">
         <v>0.25</v>
@@ -5038,33 +5034,33 @@
         <v>0.25</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q71" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R71" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S71" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T71" s="11">
         <v>167000</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72" s="5">
         <v>4</v>
@@ -5073,7 +5069,7 @@
         <v>15</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E72" s="4">
         <v>14</v>
@@ -5091,7 +5087,7 @@
         <v>11</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K72" s="16">
         <v>0.25</v>
@@ -5100,33 +5096,33 @@
         <v>0.5</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q72" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R72" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S72" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T72" s="11">
         <v>160000</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73" s="5">
         <v>42</v>
@@ -5135,7 +5131,7 @@
         <v>26</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E73" s="4">
         <v>9</v>
@@ -5153,7 +5149,7 @@
         <v>21</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K73" s="16">
         <v>0.25</v>
@@ -5162,33 +5158,33 @@
         <v>0.5</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N73" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O73" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q73" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R73" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S73" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T73" s="11">
         <v>166000</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" s="5">
         <v>24</v>
@@ -5197,7 +5193,7 @@
         <v>7</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E74" s="4">
         <v>18</v>
@@ -5215,7 +5211,7 @@
         <v>11</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K74" s="16">
         <v>0.125</v>
@@ -5224,33 +5220,33 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O74" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R74" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S74" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T74" s="11">
         <v>159000</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75" s="5">
         <v>4</v>
@@ -5259,7 +5255,7 @@
         <v>26</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E75" s="4">
         <v>7</v>
@@ -5277,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K75" s="16">
         <v>0.125</v>
@@ -5286,33 +5282,33 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N75" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O75" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q75" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R75" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S75" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T75" s="11">
         <v>171000</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76" s="5">
         <v>28</v>
@@ -5321,7 +5317,7 @@
         <v>21</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E76" s="4">
         <v>1.3</v>
@@ -5339,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K76" s="16">
         <v>0.125</v>
@@ -5348,33 +5344,33 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O76" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q76" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R76" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S76" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T76" s="11">
         <v>176000</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" s="5">
         <v>8</v>
@@ -5383,7 +5379,7 @@
         <v>49</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77" s="4">
         <v>10.5</v>
@@ -5401,7 +5397,7 @@
         <v>11</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K77" s="16">
         <v>0.125</v>
@@ -5410,33 +5406,33 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="M77" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q77" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S77" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T77" s="11">
         <v>165000</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="5">
         <v>30</v>
@@ -5445,7 +5441,7 @@
         <v>60</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" s="4">
         <v>12</v>
@@ -5463,7 +5459,7 @@
         <v>11</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K78" s="16">
         <v>0.125</v>
@@ -5472,33 +5468,33 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q78" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R78" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S78" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T78" s="11">
         <v>162000</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79" s="5">
         <v>14</v>
@@ -5507,7 +5503,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E79" s="4">
         <v>8</v>
@@ -5525,7 +5521,7 @@
         <v>19</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K79" s="16">
         <v>0.125</v>
@@ -5534,33 +5530,33 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q79" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R79" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S79" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T79" s="11">
         <v>165000</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B80" s="5">
         <v>20</v>
@@ -5569,7 +5565,7 @@
         <v>15</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E80" s="4">
         <v>4</v>
@@ -5587,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K80" s="16">
         <v>0.125</v>
@@ -5596,33 +5592,33 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S80" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T80" s="11">
         <v>184000</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B81" s="5">
         <v>6</v>
@@ -5631,7 +5627,7 @@
         <v>30</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E81" s="4">
         <v>21</v>
@@ -5649,7 +5645,7 @@
         <v>11</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K81" s="16">
         <v>0.125</v>
@@ -5658,25 +5654,25 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="M81" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q81" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R81" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S81" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T81" s="11">
         <v>162000</v>
